--- a/Data/cal.xlsx
+++ b/Data/cal.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>B3</f>
@@ -602,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>B4</f>
